--- a/opm_hero_property/heroes/40.xlsx
+++ b/opm_hero_property/heroes/40.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11034</v>
       </c>
       <c r="D4" t="n">
-        <v>11034</v>
+        <v>11750</v>
       </c>
       <c r="E4" t="n">
         <v>248</v>
@@ -1304,7 +1305,7 @@
         <v>12206</v>
       </c>
       <c r="D5" t="n">
-        <v>12206</v>
+        <v>13732</v>
       </c>
       <c r="E5" t="n">
         <v>372</v>
@@ -1411,7 +1412,7 @@
         <v>13584</v>
       </c>
       <c r="D6" t="n">
-        <v>13584</v>
+        <v>16065</v>
       </c>
       <c r="E6" t="n">
         <v>510</v>
@@ -1518,7 +1519,7 @@
         <v>15169</v>
       </c>
       <c r="D7" t="n">
-        <v>15169</v>
+        <v>20935</v>
       </c>
       <c r="E7" t="n">
         <v>957</v>
@@ -1625,7 +1626,7 @@
         <v>16962</v>
       </c>
       <c r="D8" t="n">
-        <v>16962</v>
+        <v>27671</v>
       </c>
       <c r="E8" t="n">
         <v>1417</v>
@@ -1732,7 +1733,7 @@
         <v>19029</v>
       </c>
       <c r="D9" t="n">
-        <v>19029</v>
+        <v>36739</v>
       </c>
       <c r="E9" t="n">
         <v>1871</v>
@@ -1839,7 +1840,7 @@
         <v>20132</v>
       </c>
       <c r="D10" t="n">
-        <v>20132</v>
+        <v>44292</v>
       </c>
       <c r="E10" t="n">
         <v>2211</v>
@@ -1946,7 +1947,7 @@
         <v>21442</v>
       </c>
       <c r="D11" t="n">
-        <v>21442</v>
+        <v>53565</v>
       </c>
       <c r="E11" t="n">
         <v>2580</v>
@@ -2053,7 +2054,7 @@
         <v>24199</v>
       </c>
       <c r="D12" t="n">
-        <v>24199</v>
+        <v>70069</v>
       </c>
       <c r="E12" t="n">
         <v>3175</v>
@@ -2160,7 +2161,7 @@
         <v>24750</v>
       </c>
       <c r="D13" t="n">
-        <v>24750</v>
+        <v>72402</v>
       </c>
       <c r="E13" t="n">
         <v>3572</v>
@@ -2267,7 +2268,7 @@
         <v>25302</v>
       </c>
       <c r="D14" t="n">
-        <v>25302</v>
+        <v>74735</v>
       </c>
       <c r="E14" t="n">
         <v>3968</v>
@@ -2374,7 +2375,7 @@
         <v>25853</v>
       </c>
       <c r="D15" t="n">
-        <v>25853</v>
+        <v>77067</v>
       </c>
       <c r="E15" t="n">
         <v>4365</v>
@@ -2481,7 +2482,7 @@
         <v>26404</v>
       </c>
       <c r="D16" t="n">
-        <v>26404</v>
+        <v>79400</v>
       </c>
       <c r="E16" t="n">
         <v>4762</v>
@@ -2588,7 +2589,7 @@
         <v>26956</v>
       </c>
       <c r="D17" t="n">
-        <v>26956</v>
+        <v>81733</v>
       </c>
       <c r="E17" t="n">
         <v>5159</v>
@@ -6874,4 +6875,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>40</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29555.8421848</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5540.8302816</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2021.6465</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2700</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>40</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>41974.473988</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7938.5175512</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3143.827</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2700</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>77272.65430000001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13897.7458</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6739.776</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2700</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>40</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>77272.65430000001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13897.7458</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6739.776</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2700</v>
+      </c>
+      <c r="X5" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>40</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>67828.1623</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12149.9938</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6739.776</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X6" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>40</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>285232.6634156</v>
+      </c>
+      <c r="U7" t="n">
+        <v>48138.445584</v>
+      </c>
+      <c r="V7" t="n">
+        <v>29678.2383</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3500</v>
+      </c>
+      <c r="X7" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>40</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>242128.0733516</v>
+      </c>
+      <c r="U8" t="n">
+        <v>40807.380624</v>
+      </c>
+      <c r="V8" t="n">
+        <v>29678.2383</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X8" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>40</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>252904.2208676</v>
+      </c>
+      <c r="U9" t="n">
+        <v>42640.146864</v>
+      </c>
+      <c r="V9" t="n">
+        <v>29678.2383</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2600</v>
+      </c>
+      <c r="X9" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>40</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>263680.3683836</v>
+      </c>
+      <c r="U10" t="n">
+        <v>44472.913104</v>
+      </c>
+      <c r="V10" t="n">
+        <v>29678.2383</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2900</v>
+      </c>
+      <c r="X10" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>40</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>274456.5158996</v>
+      </c>
+      <c r="U11" t="n">
+        <v>46305.679344</v>
+      </c>
+      <c r="V11" t="n">
+        <v>29678.2383</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3200</v>
+      </c>
+      <c r="X11" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>40</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>274456.5158996</v>
+      </c>
+      <c r="U12" t="n">
+        <v>46305.679344</v>
+      </c>
+      <c r="V12" t="n">
+        <v>29678.2383</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3200</v>
+      </c>
+      <c r="X12" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3740</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>40</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>411408.108752</v>
+      </c>
+      <c r="U13" t="n">
+        <v>68936.1275208</v>
+      </c>
+      <c r="V13" t="n">
+        <v>49688.053</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3200</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3880</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>40</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>411408.108752</v>
+      </c>
+      <c r="U14" t="n">
+        <v>68936.1275208</v>
+      </c>
+      <c r="V14" t="n">
+        <v>49688.053</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3200</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3950</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>40</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1023731.3509308</v>
+      </c>
+      <c r="U15" t="n">
+        <v>169174.4157888</v>
+      </c>
+      <c r="V15" t="n">
+        <v>135226.8</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3200</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>4230</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>40</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5231477.4963552</v>
+      </c>
+      <c r="U16" t="n">
+        <v>872345.2600888</v>
+      </c>
+      <c r="V16" t="n">
+        <v>699973.2791</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3200</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4790</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>40</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8567475.0134016</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1426666.6254152</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1135629.4612</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3200</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2820</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5700</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>40</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>227202.779075</v>
+      </c>
+      <c r="U18" t="n">
+        <v>41596.3889256</v>
+      </c>
+      <c r="V18" t="n">
+        <v>27109.6736</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X18" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>40</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>307479.0086372</v>
+      </c>
+      <c r="U19" t="n">
+        <v>54228.2541208</v>
+      </c>
+      <c r="V19" t="n">
+        <v>36441.887</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2600</v>
+      </c>
+      <c r="X19" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3740</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>40</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>396641.8824003999</v>
+      </c>
+      <c r="U20" t="n">
+        <v>67851.0724534</v>
+      </c>
+      <c r="V20" t="n">
+        <v>49920.33010000001</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2900</v>
+      </c>
+      <c r="X20" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>40</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>458570.323704</v>
+      </c>
+      <c r="U21" t="n">
+        <v>80056.8501784</v>
+      </c>
+      <c r="V21" t="n">
+        <v>56971.0085</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3200</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3950</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>40</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>531048.00852</v>
+      </c>
+      <c r="U22" t="n">
+        <v>96911.1700656</v>
+      </c>
+      <c r="V22" t="n">
+        <v>68937.26000000001</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3200</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>4230</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>40</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>679359.2539904</v>
+      </c>
+      <c r="U23" t="n">
+        <v>131426.8074456</v>
+      </c>
+      <c r="V23" t="n">
+        <v>93194.56230000001</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3200</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>4790</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/40.xlsx
+++ b/opm_hero_property/heroes/40.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7077,6 +7077,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7085,31 +7125,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7121,106 +7161,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29555.8421848</v>
+        <v>5366354.4963552</v>
       </c>
       <c r="U2" t="n">
-        <v>5540.8302816</v>
+        <v>896073.2600888</v>
       </c>
       <c r="V2" t="n">
-        <v>2021.6465</v>
+        <v>721813.2791</v>
       </c>
       <c r="W2" t="n">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AA2" t="n">
-        <v>2000</v>
+        <v>4790</v>
       </c>
       <c r="AB2" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11620834.554545</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1494183.74124792</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2005624.4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15715915.34579292</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -7232,73 +7296,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>41974.473988</v>
+        <v>679359.2539904</v>
       </c>
       <c r="U3" t="n">
-        <v>7938.5175512</v>
+        <v>131426.8074456</v>
       </c>
       <c r="V3" t="n">
-        <v>3143.827</v>
+        <v>93194.56230000001</v>
       </c>
       <c r="W3" t="n">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AA3" t="n">
-        <v>2000</v>
+        <v>4790</v>
       </c>
       <c r="AB3" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1317880.604865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>169588.35372504</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>467803.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2138301.95859004</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7307,16 +7395,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -7325,10 +7413,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7343,10 +7431,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7357,50 +7445,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>77272.65430000001</v>
+        <v>7428.078799999999</v>
       </c>
       <c r="U4" t="n">
-        <v>13897.7458</v>
+        <v>1573.9296</v>
       </c>
       <c r="V4" t="n">
-        <v>6739.776</v>
+        <v>613.6465000000001</v>
       </c>
       <c r="W4" t="n">
-        <v>2700</v>
+        <v>562</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="AA4" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="AB4" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7410,6 +7498,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19080.010415</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4549.950000000001</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23629.960415</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7418,16 +7530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7436,13 +7548,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7454,10 +7566,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7468,59 +7580,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>77272.65430000001</v>
+        <v>19836.878</v>
       </c>
       <c r="U5" t="n">
-        <v>13897.7458</v>
+        <v>3928.2372</v>
       </c>
       <c r="V5" t="n">
-        <v>6739.776</v>
+        <v>1902.827</v>
       </c>
       <c r="W5" t="n">
-        <v>2700</v>
+        <v>673</v>
       </c>
       <c r="X5" t="n">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="AA5" t="n">
-        <v>2070</v>
+        <v>800</v>
       </c>
       <c r="AB5" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>48777.06993000001</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11988.35</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>60765.41993</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7544,16 +7680,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7575,39 +7711,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>67828.1623</v>
+        <v>56592.05</v>
       </c>
       <c r="U6" t="n">
-        <v>12149.9938</v>
+        <v>10166.3</v>
       </c>
       <c r="V6" t="n">
-        <v>6739.776</v>
+        <v>5988.776</v>
       </c>
       <c r="W6" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="X6" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA6" t="n">
-        <v>2070</v>
+        <v>1500</v>
       </c>
       <c r="AB6" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7622,16 +7758,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>117500.382</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9640.6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>166147.482</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7640,31 +7800,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7676,10 +7836,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7690,59 +7850,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>285232.6634156</v>
+        <v>56592.05</v>
       </c>
       <c r="U7" t="n">
-        <v>48138.445584</v>
+        <v>10166.3</v>
       </c>
       <c r="V7" t="n">
-        <v>29678.2383</v>
+        <v>5988.776</v>
       </c>
       <c r="W7" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="X7" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA7" t="n">
-        <v>3810</v>
+        <v>1570</v>
       </c>
       <c r="AB7" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>117500.382</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9815.6</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>166322.482</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7751,31 +7935,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7787,10 +7971,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7801,59 +7985,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>242128.0733516</v>
+        <v>56828.1623</v>
       </c>
       <c r="U8" t="n">
-        <v>40807.380624</v>
+        <v>10209.9938</v>
       </c>
       <c r="V8" t="n">
-        <v>29678.2383</v>
+        <v>5988.776</v>
       </c>
       <c r="W8" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA8" t="n">
-        <v>3810</v>
+        <v>1570</v>
       </c>
       <c r="AB8" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>117500.382</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>537.59952</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9815.6</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>166860.08152</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7877,7 +8085,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7886,7 +8094,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7908,24 +8116,24 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>252904.2208676</v>
+        <v>240261.4586</v>
       </c>
       <c r="U9" t="n">
-        <v>42640.146864</v>
+        <v>40781.104</v>
       </c>
       <c r="V9" t="n">
-        <v>29678.2383</v>
+        <v>29805.2383</v>
       </c>
       <c r="W9" t="n">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="X9" t="n">
         <v>930</v>
@@ -7958,13 +8166,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>536316.596425</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>705325.196425</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7988,7 +8220,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7997,7 +8229,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8019,24 +8251,24 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>263680.3683836</v>
+        <v>241339.0733516</v>
       </c>
       <c r="U10" t="n">
-        <v>44472.913104</v>
+        <v>40964.380624</v>
       </c>
       <c r="V10" t="n">
-        <v>29678.2383</v>
+        <v>29805.2383</v>
       </c>
       <c r="W10" t="n">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="X10" t="n">
         <v>930</v>
@@ -8069,13 +8301,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>536316.596425</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2342.2234572</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>707667.4198822</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8099,7 +8355,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -8108,7 +8364,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8130,24 +8386,24 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>274456.5158996</v>
+        <v>252115.2208676</v>
       </c>
       <c r="U11" t="n">
-        <v>46305.679344</v>
+        <v>42797.146864</v>
       </c>
       <c r="V11" t="n">
-        <v>29678.2383</v>
+        <v>29805.2383</v>
       </c>
       <c r="W11" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="X11" t="n">
         <v>930</v>
@@ -8180,13 +8436,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>536316.596425</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>26259.4580292</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>731584.6544542001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8210,13 +8490,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -8241,27 +8521,27 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>274456.5158996</v>
+        <v>262891.3683836</v>
       </c>
       <c r="U12" t="n">
-        <v>46305.679344</v>
+        <v>44629.913104</v>
       </c>
       <c r="V12" t="n">
-        <v>29678.2383</v>
+        <v>29805.2383</v>
       </c>
       <c r="W12" t="n">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="X12" t="n">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
@@ -8270,7 +8550,7 @@
         <v>2160</v>
       </c>
       <c r="AA12" t="n">
-        <v>3740</v>
+        <v>3810</v>
       </c>
       <c r="AB12" t="n">
         <v>1080</v>
@@ -8288,7 +8568,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -8298,6 +8578,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>536316.596425</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>50176.6926012</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>755501.8890261999</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8306,10 +8610,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8324,13 +8628,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8342,10 +8646,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8356,23 +8660,23 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>411408.108752</v>
+        <v>273667.5158996</v>
       </c>
       <c r="U13" t="n">
-        <v>68936.1275208</v>
+        <v>46462.679344</v>
       </c>
       <c r="V13" t="n">
-        <v>49688.053</v>
+        <v>29805.2383</v>
       </c>
       <c r="W13" t="n">
         <v>3200</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
@@ -8381,7 +8685,7 @@
         <v>2160</v>
       </c>
       <c r="AA13" t="n">
-        <v>3880</v>
+        <v>3810</v>
       </c>
       <c r="AB13" t="n">
         <v>1080</v>
@@ -8390,25 +8694,49 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>536316.596425</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>74093.92717320001</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>779419.1235982</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8417,10 +8745,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8435,13 +8763,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8453,10 +8781,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8467,23 +8795,23 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>411408.108752</v>
+        <v>273667.5158996</v>
       </c>
       <c r="U14" t="n">
-        <v>68936.1275208</v>
+        <v>46462.679344</v>
       </c>
       <c r="V14" t="n">
-        <v>49688.053</v>
+        <v>29805.2383</v>
       </c>
       <c r="W14" t="n">
         <v>3200</v>
       </c>
       <c r="X14" t="n">
-        <v>1070</v>
+        <v>860</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
@@ -8492,7 +8820,7 @@
         <v>2160</v>
       </c>
       <c r="AA14" t="n">
-        <v>3950</v>
+        <v>3740</v>
       </c>
       <c r="AB14" t="n">
         <v>1080</v>
@@ -8501,25 +8829,49 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>536316.596425</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>74093.92717320001</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>39443.60000000001</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>779244.1235982</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8528,10 +8880,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8546,13 +8898,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8564,10 +8916,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8578,23 +8930,23 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1023731.3509308</v>
+        <v>413908.108752</v>
       </c>
       <c r="U15" t="n">
-        <v>169174.4157888</v>
+        <v>69744.1275208</v>
       </c>
       <c r="V15" t="n">
-        <v>135226.8</v>
+        <v>50462.053</v>
       </c>
       <c r="W15" t="n">
         <v>3200</v>
       </c>
       <c r="X15" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
@@ -8603,7 +8955,7 @@
         <v>2160</v>
       </c>
       <c r="AA15" t="n">
-        <v>4230</v>
+        <v>3880</v>
       </c>
       <c r="AB15" t="n">
         <v>1080</v>
@@ -8612,25 +8964,49 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>829424.2360700001</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>110214.60732552</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>112125.4</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1199253.39339552</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8639,10 +9015,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8657,13 +9033,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8675,10 +9051,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8689,23 +9065,23 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5231477.4963552</v>
+        <v>413908.108752</v>
       </c>
       <c r="U16" t="n">
-        <v>872345.2600888</v>
+        <v>69744.1275208</v>
       </c>
       <c r="V16" t="n">
-        <v>699973.2791</v>
+        <v>50462.053</v>
       </c>
       <c r="W16" t="n">
         <v>3200</v>
       </c>
       <c r="X16" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
@@ -8714,7 +9090,7 @@
         <v>2160</v>
       </c>
       <c r="AA16" t="n">
-        <v>4790</v>
+        <v>3950</v>
       </c>
       <c r="AB16" t="n">
         <v>1080</v>
@@ -8723,25 +9099,49 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>829424.2360700001</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>110214.60732552</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>112300.4</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1199428.39339552</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8750,10 +9150,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8768,13 +9168,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8786,10 +9186,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8800,23 +9200,23 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8567475.0134016</v>
+        <v>1061226.3509308</v>
       </c>
       <c r="U17" t="n">
-        <v>1426666.6254152</v>
+        <v>176031.4157888</v>
       </c>
       <c r="V17" t="n">
-        <v>1135629.4612</v>
+        <v>141859.8</v>
       </c>
       <c r="W17" t="n">
         <v>3200</v>
       </c>
       <c r="X17" t="n">
-        <v>2820</v>
+        <v>1350</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
@@ -8825,7 +9225,7 @@
         <v>2160</v>
       </c>
       <c r="AA17" t="n">
-        <v>5700</v>
+        <v>4230</v>
       </c>
       <c r="AB17" t="n">
         <v>1080</v>
@@ -8834,58 +9234,82 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1910569.62932</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>242326.24055352</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>683503.6000000001</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3106365.96987352</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8897,106 +9321,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>227202.779075</v>
+        <v>5366354.4963552</v>
       </c>
       <c r="U18" t="n">
-        <v>41596.3889256</v>
+        <v>896073.2600888</v>
       </c>
       <c r="V18" t="n">
-        <v>27109.6736</v>
+        <v>721813.2791</v>
       </c>
       <c r="W18" t="n">
-        <v>1500</v>
+        <v>3200</v>
       </c>
       <c r="X18" t="n">
-        <v>470</v>
+        <v>1910</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AA18" t="n">
-        <v>2070</v>
+        <v>4790</v>
       </c>
       <c r="AB18" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11620834.554545</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1494183.74124792</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2005624.4</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15715915.34579292</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9008,37 +9456,37 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>307479.0086372</v>
+        <v>8877193.0134016</v>
       </c>
       <c r="U19" t="n">
-        <v>54228.2541208</v>
+        <v>1480699.6254152</v>
       </c>
       <c r="V19" t="n">
-        <v>36441.887</v>
+        <v>1184861.4612</v>
       </c>
       <c r="W19" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="X19" t="n">
-        <v>860</v>
+        <v>2820</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
@@ -9047,7 +9495,7 @@
         <v>2160</v>
       </c>
       <c r="AA19" t="n">
-        <v>3740</v>
+        <v>5700</v>
       </c>
       <c r="AB19" t="n">
         <v>1080</v>
@@ -9056,25 +9504,49 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18851674.91258</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2428827.56808648</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3469133.2</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>25925477.83066648</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9083,31 +9555,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9119,73 +9591,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>396641.8824003999</v>
+        <v>216202.779075</v>
       </c>
       <c r="U20" t="n">
-        <v>67851.0724534</v>
+        <v>39656.3889256</v>
       </c>
       <c r="V20" t="n">
-        <v>49920.33010000001</v>
+        <v>26358.6736</v>
       </c>
       <c r="W20" t="n">
-        <v>2900</v>
+        <v>1000</v>
       </c>
       <c r="X20" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA20" t="n">
-        <v>3810</v>
+        <v>1570</v>
       </c>
       <c r="AB20" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>562636.1601400001</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2537.87572164</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>33824.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>646541.7358616401</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9194,31 +9690,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9230,73 +9726,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>458570.323704</v>
+        <v>284379.0086372</v>
       </c>
       <c r="U21" t="n">
-        <v>80056.8501784</v>
+        <v>50154.2541208</v>
       </c>
       <c r="V21" t="n">
-        <v>56971.0085</v>
+        <v>34865.087</v>
       </c>
       <c r="W21" t="n">
-        <v>3200</v>
+        <v>1550</v>
       </c>
       <c r="X21" t="n">
-        <v>1070</v>
+        <v>590</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>2160</v>
+        <v>1350</v>
       </c>
       <c r="AA21" t="n">
-        <v>3950</v>
+        <v>2390</v>
       </c>
       <c r="AB21" t="n">
-        <v>1080</v>
+        <v>675</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>670040.8661700001</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49269</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>32821.29615072</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>67649.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>838808.86232072</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9305,10 +9825,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -9320,16 +9840,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9341,37 +9861,37 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>531048.00852</v>
+        <v>396641.8824003999</v>
       </c>
       <c r="U22" t="n">
-        <v>96911.1700656</v>
+        <v>67851.0724534</v>
       </c>
       <c r="V22" t="n">
-        <v>68937.26000000001</v>
+        <v>49920.33010000001</v>
       </c>
       <c r="W22" t="n">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="X22" t="n">
-        <v>1350</v>
+        <v>930</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
@@ -9380,7 +9900,7 @@
         <v>2160</v>
       </c>
       <c r="AA22" t="n">
-        <v>4230</v>
+        <v>3810</v>
       </c>
       <c r="AB22" t="n">
         <v>1080</v>
@@ -9389,25 +9909,49 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>853179.315685</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>76790.81471886</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>97518.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1165140.18040386</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9416,10 +9960,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9434,13 +9978,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9452,10 +9996,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9466,23 +10010,23 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>679359.2539904</v>
+        <v>458570.323704</v>
       </c>
       <c r="U23" t="n">
-        <v>131426.8074456</v>
+        <v>80056.8501784</v>
       </c>
       <c r="V23" t="n">
-        <v>93194.56230000001</v>
+        <v>56971.0085</v>
       </c>
       <c r="W23" t="n">
         <v>3200</v>
       </c>
       <c r="X23" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
@@ -9491,7 +10035,7 @@
         <v>2160</v>
       </c>
       <c r="AA23" t="n">
-        <v>4790</v>
+        <v>3950</v>
       </c>
       <c r="AB23" t="n">
         <v>1080</v>
@@ -9500,25 +10044,319 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>932607.7772349999</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>122908.51157496</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>152526</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1352674.88880996</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>40</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>531048.00852</v>
+      </c>
+      <c r="U24" t="n">
+        <v>96911.1700656</v>
+      </c>
+      <c r="V24" t="n">
+        <v>68937.26000000001</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3200</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4230</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1057890.85324</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>137999.27373264</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>257621.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1610953.32697264</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>40</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>679359.2539904</v>
+      </c>
+      <c r="U25" t="n">
+        <v>131426.8074456</v>
+      </c>
+      <c r="V25" t="n">
+        <v>93194.56230000001</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3200</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>4790</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1317880.604865</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>169588.35372504</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>467803.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2138301.95859004</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/40.xlsx
+++ b/opm_hero_property/heroes/40.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,32410;31,18425;41,3681</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,55298;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,3929;31,2208;41,526</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,6628;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>32410.5528</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>18425.0079</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>3681.0272</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>55298.43539999999</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>3929.7642</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>2208.7155</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>526.3936</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>6628.953</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,32413;31,18427;41,3681</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,55306;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,3933;31,2211;41,527</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,6636;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>32413.8016</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>18427.6837</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>3681.6796</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>55306.4662</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>3933.013</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>2211.3913</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>527.046</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>6636.9838</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,34667;31,20306;41,4302</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,60946;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4175;31,2413;41,595</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,7244;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>34667.27547384</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>20306.82848494</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>4302.332185</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>60946.28828644</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>4175.74319868</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>2413.77145078</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>595.637705</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>7244.38140628</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,37220;31,22436;41,5005</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,67337;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4450;31,2642;41,673</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,7932;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>37220.35438584001</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>22436.48980346</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>5005.13248024</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>67337.97829196</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>4450.359022680001</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>2642.883300020001</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>673.18962072</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>7932.008074520001</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,53733;31,11091;41,4380</t>
+          <t>21,40223;31,24940;41,5832</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,53733;31,11091;41,4380</t>
+          <t>21,0;31,74852;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,26866;31,5545;41,2190</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6376;31,1295;41,574</t>
+          <t>21,4773;31,2912;41,764</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6376;31,1295;41,574</t>
+          <t>21,0;31,8739;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3188;31,647;41,287</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>53733</v>
+        <v>40223.20765508</v>
       </c>
       <c r="O6" t="n">
-        <v>11091</v>
+        <v>24940.22920544</v>
       </c>
       <c r="P6" t="n">
-        <v>4380</v>
+        <v>5832.4268983</v>
       </c>
       <c r="Q6" t="n">
-        <v>53733</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11091</v>
+        <v>74852.37786944001</v>
       </c>
       <c r="S6" t="n">
-        <v>4380</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>26866</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5545</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2190</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6376</v>
+        <v>4773.17008466</v>
       </c>
       <c r="X6" t="n">
-        <v>1295</v>
+        <v>2912.017609280001</v>
       </c>
       <c r="Y6" t="n">
-        <v>574</v>
+        <v>764.5080199</v>
       </c>
       <c r="Z6" t="n">
-        <v>6376</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1295</v>
+        <v>8739.752977280001</v>
       </c>
       <c r="AB6" t="n">
-        <v>574</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>3188</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,60233;31,12374;41,5678</t>
+          <t>21,45089;31,27824;41,7560</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,60233;31,12374;41,5678</t>
+          <t>21,0;31,83507;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,30116;31,6187;41,2839</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7082;31,1434;41,718</t>
+          <t>21,5301;31,3225;41,956</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,7082;31,1434;41,718</t>
+          <t>21,0;31,9680;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3541;31,717;41,359</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>60233</v>
+        <v>45089.1581308</v>
       </c>
       <c r="O7" t="n">
-        <v>12374</v>
+        <v>27824.03255779</v>
       </c>
       <c r="P7" t="n">
-        <v>5678</v>
+        <v>7560.641441700001</v>
       </c>
       <c r="Q7" t="n">
-        <v>60233</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12374</v>
+        <v>83507.45222553999</v>
       </c>
       <c r="S7" t="n">
-        <v>5678</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>30116</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6187</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2839</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>7082</v>
+        <v>5301.4964566</v>
       </c>
       <c r="X7" t="n">
-        <v>1434</v>
+        <v>3225.53861623</v>
       </c>
       <c r="Y7" t="n">
-        <v>718</v>
+        <v>956.4160001</v>
       </c>
       <c r="Z7" t="n">
-        <v>7082</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1434</v>
+        <v>9680.714372979999</v>
       </c>
       <c r="AB7" t="n">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>3541</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>717</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,68637;31,13823;41,7473</t>
+          <t>21,51380;31,31084;41,9950</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,68637;31,13823;41,7473</t>
+          <t>21,0;31,93291;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,34318;31,6911;41,3736</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,7990;31,1591;41,917</t>
+          <t>21,5981;31,3577;41,1221</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,7990;31,1591;41,917</t>
+          <t>21,0;31,10738;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,3995;31,795;41,458</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>68637</v>
+        <v>51380.1667816</v>
       </c>
       <c r="O8" t="n">
-        <v>13823</v>
+        <v>31084.04822742</v>
       </c>
       <c r="P8" t="n">
-        <v>7473</v>
+        <v>9950.41932522</v>
       </c>
       <c r="Q8" t="n">
-        <v>68637</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>13823</v>
+        <v>93291.64156691999</v>
       </c>
       <c r="S8" t="n">
-        <v>7473</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>34318</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>6911</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3736</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>7990</v>
+        <v>5981.789753200001</v>
       </c>
       <c r="X8" t="n">
-        <v>1591</v>
+        <v>3577.97305854</v>
       </c>
       <c r="Y8" t="n">
-        <v>917</v>
+        <v>1221.23269066</v>
       </c>
       <c r="Z8" t="n">
-        <v>7990</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1591</v>
+        <v>10738.46552004</v>
       </c>
       <c r="AB8" t="n">
-        <v>917</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>3995</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,79447;31,15494;41,9889</t>
+          <t>21,59471;31,34840;41,13166</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,79447;31,15494;41,9889</t>
+          <t>21,0;31,104564;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,39723;31,7747;41,4944</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9155;31,1770;41,1184</t>
+          <t>21,6853;31,3982;41,1576</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,9155;31,1770;41,1184</t>
+          <t>21,0;31,11951;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4577;31,885;41,592</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>79447</v>
+        <v>59471.83574900001</v>
       </c>
       <c r="O9" t="n">
-        <v>15494</v>
+        <v>34840.05083039001</v>
       </c>
       <c r="P9" t="n">
-        <v>9889</v>
+        <v>13166.57814098</v>
       </c>
       <c r="Q9" t="n">
-        <v>79447</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15494</v>
+        <v>104564.42193314</v>
       </c>
       <c r="S9" t="n">
-        <v>9889</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>7747</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>4944</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>9155</v>
+        <v>6853.5788105</v>
       </c>
       <c r="X9" t="n">
-        <v>1770</v>
+        <v>3982.06802243</v>
       </c>
       <c r="Y9" t="n">
-        <v>1184</v>
+        <v>1576.76975794</v>
       </c>
       <c r="Z9" t="n">
-        <v>9155</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1770</v>
+        <v>11951.26387418</v>
       </c>
       <c r="AB9" t="n">
-        <v>1184</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>4577</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>885</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,87548;31,16385;41,11901</t>
+          <t>21,65536;31,36844;41,15845</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,87548;31,16385;41,11901</t>
+          <t>21,0;31,110579;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,43774;31,8192;41,5950</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,10028;31,1866;41,1406</t>
+          <t>21,7506;31,4197;41,1872</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,10028;31,1866;41,1406</t>
+          <t>21,0;31,12598;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,5014;31,933;41,703</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>87548</v>
+        <v>65536.59026500001</v>
       </c>
       <c r="O10" t="n">
-        <v>16385</v>
+        <v>36844.25713212</v>
       </c>
       <c r="P10" t="n">
-        <v>11901</v>
+        <v>15845.43473944</v>
       </c>
       <c r="Q10" t="n">
-        <v>87548</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>16385</v>
+        <v>110579.58747912</v>
       </c>
       <c r="S10" t="n">
-        <v>11901</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>43774</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>5950</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>10028</v>
+        <v>7506.9834925</v>
       </c>
       <c r="X10" t="n">
-        <v>1866</v>
+        <v>4197.61727244</v>
       </c>
       <c r="Y10" t="n">
-        <v>1406</v>
+        <v>1872.93159832</v>
       </c>
       <c r="Z10" t="n">
-        <v>10028</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1866</v>
+        <v>12598.18551144</v>
       </c>
       <c r="AB10" t="n">
-        <v>1406</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>5014</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>933</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,97431;31,17443;41,14370</t>
+          <t>21,72934;31,39224;41,19133</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,97431;31,17443;41,14370</t>
+          <t>21,0;31,117721;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,48715;31,8721;41,7185</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,11091;31,1980;41,1679</t>
+          <t>21,8302;31,4453;41,2236</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,11091;31,1980;41,1679</t>
+          <t>21,0;31,13364;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5545;31,990;41,839</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>97431</v>
+        <v>72934.39081452001</v>
       </c>
       <c r="O11" t="n">
-        <v>17443</v>
+        <v>39224.04148422</v>
       </c>
       <c r="P11" t="n">
-        <v>14370</v>
+        <v>19133.9425483</v>
       </c>
       <c r="Q11" t="n">
-        <v>97431</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>17443</v>
+        <v>117721.96440372</v>
       </c>
       <c r="S11" t="n">
-        <v>14370</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>48715</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8721</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7185</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>11091</v>
+        <v>8302.93724454</v>
       </c>
       <c r="X11" t="n">
-        <v>1980</v>
+        <v>4453.06732014</v>
       </c>
       <c r="Y11" t="n">
-        <v>1679</v>
+        <v>2236.1476699</v>
       </c>
       <c r="Z11" t="n">
-        <v>11091</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1980</v>
+        <v>13364.86024164</v>
       </c>
       <c r="AB11" t="n">
-        <v>1679</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>5545</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,115633;31,19671;41,18766</t>
+          <t>21,86559;31,44232;41,24986</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,115633;31,19671;41,18766</t>
+          <t>21,0;31,132752;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,57816;31,9835;41,9383</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,13047;31,2219;41,2164</t>
+          <t>21,9766;31,4990;41,2881</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,13047;31,2219;41,2164</t>
+          <t>21,0;31,14977;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6523;31,1109;41,1082</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>115633</v>
+        <v>86559.69803732001</v>
       </c>
       <c r="O12" t="n">
-        <v>19671</v>
+        <v>44232.23325509</v>
       </c>
       <c r="P12" t="n">
-        <v>18766</v>
+        <v>24986.06192158</v>
       </c>
       <c r="Q12" t="n">
-        <v>115633</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>19671</v>
+        <v>132752.90336534</v>
       </c>
       <c r="S12" t="n">
-        <v>18766</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>57816</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>9835</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>9383</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>13047</v>
+        <v>9766.94773514</v>
       </c>
       <c r="X12" t="n">
-        <v>2219</v>
+        <v>4990.42727633</v>
       </c>
       <c r="Y12" t="n">
-        <v>2164</v>
+        <v>2881.85974974</v>
       </c>
       <c r="Z12" t="n">
-        <v>13047</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>2219</v>
+        <v>14977.62290558</v>
       </c>
       <c r="AB12" t="n">
-        <v>2164</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>6523</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1109</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,118448;31,20118;41,19389</t>
+          <t>21,88667;31,45237;41,25815</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,118448;31,20118;41,19389</t>
+          <t>21,0;31,135768;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,59224;31,10059;41,9694</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,13359;31,2268;41,2234</t>
+          <t>21,10000;31,5101;41,2975</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,13359;31,2268;41,2234</t>
+          <t>21,0;31,15311;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6679;31,1134;41,1117</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>118448</v>
+        <v>88667.33470444</v>
       </c>
       <c r="O13" t="n">
-        <v>20118</v>
+        <v>45237.12792250001</v>
       </c>
       <c r="P13" t="n">
-        <v>19389</v>
+        <v>25815.54653964</v>
       </c>
       <c r="Q13" t="n">
-        <v>118448</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20118</v>
+        <v>135768.864235</v>
       </c>
       <c r="S13" t="n">
-        <v>19389</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>59224</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>10059</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>9694</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>13359</v>
+        <v>10000.54851238</v>
       </c>
       <c r="X13" t="n">
-        <v>2268</v>
+        <v>5101.804232500001</v>
       </c>
       <c r="Y13" t="n">
-        <v>2234</v>
+        <v>2975.36834892</v>
       </c>
       <c r="Z13" t="n">
-        <v>13359</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2268</v>
+        <v>15311.895295</v>
       </c>
       <c r="AB13" t="n">
-        <v>2234</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>6679</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1134</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,121268;31,20565;41,20012</t>
+          <t>21,90778;31,46243;41,26644</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,121268;31,20565;41,20012</t>
+          <t>21,0;31,138790;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,60634;31,10282;41,10006</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,13671;31,2318;41,2304</t>
+          <t>21,10234;31,5213;41,3068</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,13671;31,2318;41,2304</t>
+          <t>21,0;31,15646;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,6835;31,1159;41,1152</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>121268</v>
+        <v>90778.1324592</v>
       </c>
       <c r="O14" t="n">
-        <v>20565</v>
+        <v>46243.75865682</v>
       </c>
       <c r="P14" t="n">
-        <v>20012</v>
+        <v>26644.9845577</v>
       </c>
       <c r="Q14" t="n">
-        <v>121268</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>20565</v>
+        <v>138790.03551132</v>
       </c>
       <c r="S14" t="n">
-        <v>20012</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>60634</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10282</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>10006</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>13671</v>
+        <v>10234.4622984</v>
       </c>
       <c r="X14" t="n">
-        <v>2318</v>
+        <v>5213.29562634</v>
       </c>
       <c r="Y14" t="n">
-        <v>2304</v>
+        <v>3068.8303481</v>
       </c>
       <c r="Z14" t="n">
-        <v>13671</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>2318</v>
+        <v>15646.51114284</v>
       </c>
       <c r="AB14" t="n">
-        <v>2304</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>6835</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1159</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,124088;31,21012;41,20635</t>
+          <t>21,92888;31,47248;41,27474</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,124088;31,21012;41,20635</t>
+          <t>21,0;31,141805;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,62044;31,10506;41,10317</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,13984;31,2368;41,2375</t>
+          <t>21,10468;31,5324;41,3162</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,13984;31,2368;41,2375</t>
+          <t>21,0;31,15980;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,6992;31,1184;41,1187</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>124088</v>
+        <v>92888.95641396001</v>
       </c>
       <c r="O15" t="n">
-        <v>21012</v>
+        <v>47248.65332423001</v>
       </c>
       <c r="P15" t="n">
-        <v>20635</v>
+        <v>27474.11488994</v>
       </c>
       <c r="Q15" t="n">
-        <v>124088</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21012</v>
+        <v>141805.99638098</v>
       </c>
       <c r="S15" t="n">
-        <v>20635</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>62044</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>10506</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>10317</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>13984</v>
+        <v>10468.40228442</v>
       </c>
       <c r="X15" t="n">
-        <v>2368</v>
+        <v>5324.67258251</v>
       </c>
       <c r="Y15" t="n">
-        <v>2375</v>
+        <v>3162.30012482</v>
       </c>
       <c r="Z15" t="n">
-        <v>13984</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>2368</v>
+        <v>15980.78353226</v>
       </c>
       <c r="AB15" t="n">
-        <v>2375</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>6992</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1184</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,126908;31,21459;41,21258</t>
+          <t>21,94999;31,48253;41,28303</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,126908;31,21459;41,21258</t>
+          <t>21,0;31,144821;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,63454;31,10729;41,10629</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,14297;31,2417;41,2445</t>
+          <t>21,10702;31,5436;41,3255</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,14297;31,2417;41,2445</t>
+          <t>21,0;31,16315;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,7148;31,1208;41,1222</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>126908</v>
+        <v>94999.78036872001</v>
       </c>
       <c r="O16" t="n">
-        <v>21459</v>
+        <v>48253.54799164</v>
       </c>
       <c r="P16" t="n">
-        <v>21258</v>
+        <v>28303.599508</v>
       </c>
       <c r="Q16" t="n">
-        <v>126908</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21459</v>
+        <v>144821.95725064</v>
       </c>
       <c r="S16" t="n">
-        <v>21258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>63454</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>10729</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>10629</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>14297</v>
+        <v>10702.34227044</v>
       </c>
       <c r="X16" t="n">
-        <v>2417</v>
+        <v>5436.04953868</v>
       </c>
       <c r="Y16" t="n">
-        <v>2445</v>
+        <v>3255.808724</v>
       </c>
       <c r="Z16" t="n">
-        <v>14297</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>2417</v>
+        <v>16315.05592168</v>
       </c>
       <c r="AB16" t="n">
-        <v>2445</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>7148</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1208</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,129723;31,21907;41,21881</t>
+          <t>21,97107;31,49260;41,29133</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,129723;31,21907;41,21881</t>
+          <t>21,0;31,147843;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,64861;31,10953;41,10940</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,14609;31,2467;41,2515</t>
+          <t>21,10935;31,5547;41,3349</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,14609;31,2467;41,2515</t>
+          <t>21,0;31,16649;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7304;31,1233;41,1257</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>129723</v>
+        <v>97107.41703584</v>
       </c>
       <c r="O17" t="n">
-        <v>21907</v>
+        <v>49260.17872596001</v>
       </c>
       <c r="P17" t="n">
-        <v>21881</v>
+        <v>29133.08412606</v>
       </c>
       <c r="Q17" t="n">
-        <v>129723</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>21907</v>
+        <v>147843.12852696</v>
       </c>
       <c r="S17" t="n">
-        <v>21881</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>64861</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10953</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>10940</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14609</v>
+        <v>10935.94304768</v>
       </c>
       <c r="X17" t="n">
-        <v>2467</v>
+        <v>5547.54093252</v>
       </c>
       <c r="Y17" t="n">
-        <v>2515</v>
+        <v>3349.31732318</v>
       </c>
       <c r="Z17" t="n">
-        <v>14609</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2467</v>
+        <v>16649.67176952</v>
       </c>
       <c r="AB17" t="n">
-        <v>2515</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>7304</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1233</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1257</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5447,141 +5447,141 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7587</v>
+        <v>5448</v>
       </c>
       <c r="C2" t="n">
-        <v>1420</v>
+        <v>2760</v>
       </c>
       <c r="D2" t="n">
-        <v>904</v>
+        <v>1634</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H2" t="n">
-        <v>7587</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1420</v>
+        <v>3173</v>
       </c>
       <c r="J2" t="n">
-        <v>904</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3793</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>452</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5003</v>
+        <v>2782</v>
       </c>
       <c r="U2" t="n">
-        <v>874</v>
+        <v>1548</v>
       </c>
       <c r="V2" t="n">
-        <v>727</v>
+        <v>644</v>
       </c>
       <c r="W2" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="X2" t="n">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Z2" t="n">
-        <v>5003</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>874</v>
+        <v>1780</v>
       </c>
       <c r="AB2" t="n">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="AE2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>2501</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,7587;31,1420;41,904;22,40;32,40;42,40</t>
+          <t>21,5448;31,2760;41,1634;22,30;32,90;42,53</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,7587;31,1420;41,904;22,40;32,40;42,40</t>
+          <t>21,0;31,3173;41,0;22,0;32,270;42,0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,3793;31,710;41,452;22,20;32,20;42,20</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,2782;31,1548;41,644;22,26;32,78;42,46</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,0;31,1780;41,0;22,0;32,236;42,0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2501;31,437;41,363;22,17;32,17;42,17</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5590,141 +5590,141 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15283</v>
+        <v>10896</v>
       </c>
       <c r="C3" t="n">
-        <v>2725</v>
+        <v>5520</v>
       </c>
       <c r="D3" t="n">
-        <v>1948</v>
+        <v>3268</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="H3" t="n">
-        <v>15283</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2725</v>
+        <v>6347</v>
       </c>
       <c r="J3" t="n">
-        <v>1948</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7641</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1362</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>974</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>3209</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>1716</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>804</v>
       </c>
       <c r="W3" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="X3" t="n">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="Z3" t="n">
-        <v>5241</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>915</v>
+        <v>1973</v>
       </c>
       <c r="AB3" t="n">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>472</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>2620</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,15283;31,2725;41,1948;22,80;32,80;42,80</t>
+          <t>21,10896;31,5520;41,3268;22,60;32,180;42,106</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,15283;31,2725;41,1948;22,80;32,80;42,80</t>
+          <t>21,0;31,6347;41,0;22,0;32,540;42,0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,7641;31,1362;41,974;22,40;32,40;42,40</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,3209;31,1716;41,804;22,52;32,157;42,93</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,0;31,1973;41,0;22,0;32,472;42,0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2620;31,457;41,384;22,35;32,35;42,35</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5733,141 +5733,141 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22861</v>
+        <v>16344</v>
       </c>
       <c r="C4" t="n">
-        <v>3890</v>
+        <v>8280</v>
       </c>
       <c r="D4" t="n">
-        <v>3181</v>
+        <v>4902</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F4" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="H4" t="n">
-        <v>22861</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3890</v>
+        <v>9521</v>
       </c>
       <c r="J4" t="n">
-        <v>3181</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>810</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>11430</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1945</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1590</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>3934</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>2007</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>1085</v>
       </c>
       <c r="W4" t="n">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="X4" t="n">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="Y4" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="Z4" t="n">
-        <v>5490</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>959</v>
+        <v>2308</v>
       </c>
       <c r="AB4" t="n">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>708</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>2745</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,22861;31,3890;41,3181;22,120;32,120;42,120</t>
+          <t>21,16344;31,8280;41,4902;22,90;32,270;42,160</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,22861;31,3890;41,3181;22,120;32,120;42,120</t>
+          <t>21,0;31,9521;41,0;22,0;32,810;42,0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,11430;31,1945;41,1590;22,60;32,60;42,60</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,3934;31,2007;41,1085;22,78;32,236;42,140</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,0;31,2308;41,0;22,0;32,708;42,0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,2745;31,479;41,406;22,52;32,52;42,52</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5876,141 +5876,141 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>30414</v>
+        <v>21793</v>
       </c>
       <c r="C5" t="n">
-        <v>5166</v>
+        <v>11041</v>
       </c>
       <c r="D5" t="n">
-        <v>4285</v>
+        <v>6536</v>
       </c>
       <c r="E5" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="F5" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="H5" t="n">
-        <v>30414</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5166</v>
+        <v>12695</v>
       </c>
       <c r="J5" t="n">
-        <v>4285</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>1080</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>15207</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2583</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2142</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>4219</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>2149</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>1182</v>
       </c>
       <c r="W5" t="n">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="X5" t="n">
-        <v>140</v>
+        <v>315</v>
       </c>
       <c r="Y5" t="n">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="Z5" t="n">
-        <v>5881</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026</v>
+        <v>2471</v>
       </c>
       <c r="AB5" t="n">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>945</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>513</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,30414;31,5166;41,4285;22,160;32,160;42,160</t>
+          <t>21,21793;31,11041;41,6536;22,120;32,360;42,213</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,30414;31,5166;41,4285;22,160;32,160;42,160</t>
+          <t>21,0;31,12695;41,0;22,0;32,1080;42,0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,15207;31,2583;41,2142;22,80;32,80;42,80</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,4219;31,2149;41,1182;22,105;32,315;42,186</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,0;31,2471;41,0;22,0;32,945;42,0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,2940;31,513;41,441;22,70;32,70;42,70</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6019,141 +6019,141 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>37940</v>
+        <v>27241</v>
       </c>
       <c r="C6" t="n">
-        <v>6433</v>
+        <v>13801</v>
       </c>
       <c r="D6" t="n">
-        <v>5410</v>
+        <v>8170</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="H6" t="n">
-        <v>37940</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6433</v>
+        <v>15869</v>
       </c>
       <c r="J6" t="n">
-        <v>5410</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>1350</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>18970</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3216</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2705</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>4522</v>
       </c>
       <c r="U6" t="n">
-        <v>1075</v>
+        <v>2300</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>1287</v>
       </c>
       <c r="W6" t="n">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="X6" t="n">
-        <v>175</v>
+        <v>393</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="Z6" t="n">
-        <v>6161</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075</v>
+        <v>2645</v>
       </c>
       <c r="AB6" t="n">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>1181</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,37940;31,6433;41,5410;22,200;32,200;42,200</t>
+          <t>21,27241;31,13801;41,8170;22,150;32,450;42,266</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,37940;31,6433;41,5410;22,200;32,200;42,200</t>
+          <t>21,0;31,15869;41,0;22,0;32,1350;42,0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,18970;31,3216;41,2705;22,100;32,100;42,100</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,4522;31,2300;41,1287;22,131;32,393;42,233</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,0;31,2645;41,0;22,0;32,1181;42,0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,3080;31,537;41,466;22,87;32,87;42,87</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6162,141 +6162,141 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>44242</v>
+        <v>32689</v>
       </c>
       <c r="C7" t="n">
-        <v>7491</v>
+        <v>16561</v>
       </c>
       <c r="D7" t="n">
-        <v>7020</v>
+        <v>9804</v>
       </c>
       <c r="E7" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="F7" t="n">
-        <v>240</v>
+        <v>540</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="H7" t="n">
-        <v>44242</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7491</v>
+        <v>19042</v>
       </c>
       <c r="J7" t="n">
-        <v>7020</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>1620</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>22121</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3745</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3510</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>4845</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>2461</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>1399</v>
       </c>
       <c r="W7" t="n">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="X7" t="n">
-        <v>210</v>
+        <v>472</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="Z7" t="n">
-        <v>6454</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126</v>
+        <v>2830</v>
       </c>
       <c r="AB7" t="n">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>1417</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>3227</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,44242;31,7491;41,7020;22,240;32,240;42,240</t>
+          <t>21,32689;31,16561;41,9804;22,180;32,540;42,320</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,44242;31,7491;41,7020;22,240;32,240;42,240</t>
+          <t>21,0;31,19042;41,0;22,0;32,1620;42,0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,22121;31,3745;41,3510;22,120;32,120;42,120</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,4845;31,2461;41,1399;22,157;32,472;42,280</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,0;31,2830;41,0;22,0;32,1417;42,0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,3227;31,563;41,492;22,105;32,105;42,105</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6305,141 +6305,141 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>50529</v>
+        <v>38138</v>
       </c>
       <c r="C8" t="n">
-        <v>8544</v>
+        <v>19322</v>
       </c>
       <c r="D8" t="n">
-        <v>8642</v>
+        <v>11438</v>
       </c>
       <c r="E8" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="F8" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="G8" t="n">
-        <v>280</v>
+        <v>373</v>
       </c>
       <c r="H8" t="n">
-        <v>50529</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>8544</v>
+        <v>22216</v>
       </c>
       <c r="J8" t="n">
-        <v>8642</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>1890</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>25264</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4272</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>4321</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>5189</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>2632</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>1520</v>
       </c>
       <c r="W8" t="n">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="X8" t="n">
-        <v>245</v>
+        <v>551</v>
       </c>
       <c r="Y8" t="n">
-        <v>245</v>
+        <v>326</v>
       </c>
       <c r="Z8" t="n">
-        <v>6762</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179</v>
+        <v>3026</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>1653</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>3381</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,50529;31,8544;41,8642;22,280;32,280;42,280</t>
+          <t>21,38138;31,19322;41,11438;22,210;32,630;42,373</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,50529;31,8544;41,8642;22,280;32,280;42,280</t>
+          <t>21,0;31,22216;41,0;22,0;32,1890;42,0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,25264;31,4272;41,4321;22,140;32,140;42,140</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,5189;31,2632;41,1520;22,183;32,551;42,326</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,0;31,3026;41,0;22,0;32,1653;42,0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,3381;31,589;41,519;22,122;32,122;42,122</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6448,141 +6448,141 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>57297</v>
+        <v>43586</v>
       </c>
       <c r="C9" t="n">
-        <v>9676</v>
+        <v>22082</v>
       </c>
       <c r="D9" t="n">
-        <v>10081</v>
+        <v>13072</v>
       </c>
       <c r="E9" t="n">
-        <v>315</v>
+        <v>236</v>
       </c>
       <c r="F9" t="n">
-        <v>315</v>
+        <v>708</v>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>420</v>
       </c>
       <c r="H9" t="n">
-        <v>57297</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>9676</v>
+        <v>25390</v>
       </c>
       <c r="J9" t="n">
-        <v>10081</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>2126</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>28648</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>4838</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>5040</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>5765</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>2921</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>1723</v>
       </c>
       <c r="W9" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="X9" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>373</v>
       </c>
       <c r="Z9" t="n">
-        <v>7353</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283</v>
+        <v>3358</v>
       </c>
       <c r="AB9" t="n">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>1890</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>3676</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,57297;31,9676;41,10081;22,315;32,315;42,315</t>
+          <t>21,43586;31,22082;41,13072;22,236;32,708;42,420</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,57297;31,9676;41,10081;22,315;32,315;42,315</t>
+          <t>21,0;31,25390;41,0;22,0;32,2126;42,0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,28648;31,4838;41,5040;22,157;32,157;42,157</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,5765;31,2921;41,1723;22,210;32,630;42,373</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,0;31,3358;41,0;22,0;32,1890;42,0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,3676;31,641;41,572;22,140;32,140;42,140</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6591,141 +6591,141 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>65034</v>
+        <v>49034</v>
       </c>
       <c r="C10" t="n">
-        <v>10982</v>
+        <v>24842</v>
       </c>
       <c r="D10" t="n">
-        <v>11103</v>
+        <v>14706</v>
       </c>
       <c r="E10" t="n">
-        <v>335</v>
+        <v>251</v>
       </c>
       <c r="F10" t="n">
-        <v>335</v>
+        <v>753</v>
       </c>
       <c r="G10" t="n">
-        <v>335</v>
+        <v>446</v>
       </c>
       <c r="H10" t="n">
-        <v>65034</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>10982</v>
+        <v>28564</v>
       </c>
       <c r="J10" t="n">
-        <v>11103</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>335</v>
+        <v>2261</v>
       </c>
       <c r="M10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>32517</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5491</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5551</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7961</v>
+        <v>6242</v>
       </c>
       <c r="U10" t="n">
-        <v>1389</v>
+        <v>3162</v>
       </c>
       <c r="V10" t="n">
-        <v>1254</v>
+        <v>1889</v>
       </c>
       <c r="W10" t="n">
-        <v>315</v>
+        <v>236</v>
       </c>
       <c r="X10" t="n">
-        <v>315</v>
+        <v>708</v>
       </c>
       <c r="Y10" t="n">
-        <v>315</v>
+        <v>420</v>
       </c>
       <c r="Z10" t="n">
-        <v>7961</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389</v>
+        <v>3636</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>2126</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>3980</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,65034;31,10982;41,11103;22,335;32,335;42,335</t>
+          <t>21,49034;31,24842;41,14706;22,251;32,753;42,446</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,65034;31,10982;41,11103;22,335;32,335;42,335</t>
+          <t>21,0;31,28564;41,0;22,0;32,2261;42,0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,32517;31,5491;41,5551;22,167;32,167;42,167</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,6242;31,3162;41,1889;22,236;32,708;42,420</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,0;31,3636;41,0;22,0;32,2126;42,0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,3980;31,694;41,627;22,157;32,157;42,157</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6734,141 +6734,141 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>72645</v>
+        <v>54483</v>
       </c>
       <c r="C11" t="n">
-        <v>12268</v>
+        <v>27603</v>
       </c>
       <c r="D11" t="n">
-        <v>12253</v>
+        <v>16341</v>
       </c>
       <c r="E11" t="n">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="F11" t="n">
-        <v>350</v>
+        <v>787</v>
       </c>
       <c r="G11" t="n">
-        <v>350</v>
+        <v>466</v>
       </c>
       <c r="H11" t="n">
-        <v>72645</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>12268</v>
+        <v>31738</v>
       </c>
       <c r="J11" t="n">
-        <v>12253</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>2362</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>36322</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>6134</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>6126</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8582</v>
+        <v>6730</v>
       </c>
       <c r="U11" t="n">
-        <v>1497</v>
+        <v>3409</v>
       </c>
       <c r="V11" t="n">
-        <v>1368</v>
+        <v>2060</v>
       </c>
       <c r="W11" t="n">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="X11" t="n">
-        <v>350</v>
+        <v>787</v>
       </c>
       <c r="Y11" t="n">
-        <v>350</v>
+        <v>466</v>
       </c>
       <c r="Z11" t="n">
-        <v>8582</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1497</v>
+        <v>3920</v>
       </c>
       <c r="AB11" t="n">
-        <v>1368</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>2362</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>4291</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>748</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,72645;31,12268;41,12253;22,350;32,350;42,350</t>
+          <t>21,54483;31,27603;41,16341;22,262;32,787;42,466</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,72645;31,12268;41,12253;22,350;32,350;42,350</t>
+          <t>21,0;31,31738;41,0;22,0;32,2362;42,0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,36322;31,6134;41,6126;22,175;32,175;42,175</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,6730;31,3409;41,2060;22,262;32,787;42,466</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,0;31,3920;41,0;22,0;32,2362;42,0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,4291;31,748;41,684;22,175;32,175;42,175</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -7179,13 +7179,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5366354.4963552</v>
+        <v>5517944.913391041</v>
       </c>
       <c r="U2" t="n">
-        <v>896073.2600888</v>
+        <v>972936.43881476</v>
       </c>
       <c r="V2" t="n">
-        <v>721813.2791</v>
+        <v>767287.3632260601</v>
       </c>
       <c r="W2" t="n">
         <v>3200</v>
@@ -7226,8 +7226,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,179581;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11620834.554545</v>
       </c>
@@ -7247,10 +7255,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>943422.333969809</v>
       </c>
       <c r="AS2" t="n">
-        <v>15715915.34579292</v>
+        <v>16659337.67976273</v>
       </c>
     </row>
     <row r="3">
@@ -7314,13 +7322,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>679359.2539904</v>
+        <v>697025.19703808</v>
       </c>
       <c r="U3" t="n">
-        <v>131426.8074456</v>
+        <v>140383.34837812</v>
       </c>
       <c r="V3" t="n">
-        <v>93194.56230000001</v>
+        <v>98603.87962318001</v>
       </c>
       <c r="W3" t="n">
         <v>3200</v>
@@ -7361,8 +7369,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,20569;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1317880.604865</v>
       </c>
@@ -7382,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>110569.650090353</v>
       </c>
       <c r="AS3" t="n">
-        <v>2138301.95859004</v>
+        <v>2248871.608680393</v>
       </c>
     </row>
     <row r="4">
@@ -7854,13 +7870,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>56592.05</v>
+        <v>62158.10615000001</v>
       </c>
       <c r="U7" t="n">
-        <v>10166.3</v>
+        <v>12991.8407</v>
       </c>
       <c r="V7" t="n">
-        <v>5988.776</v>
+        <v>7647.732512799999</v>
       </c>
       <c r="W7" t="n">
         <v>1000</v>
@@ -7901,8 +7917,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,3369;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>117500.382</v>
       </c>
@@ -7922,10 +7946,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>34601.2869286</v>
       </c>
       <c r="AS7" t="n">
-        <v>166322.482</v>
+        <v>200923.7689286</v>
       </c>
     </row>
     <row r="8">
@@ -7989,13 +8013,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>56828.1623</v>
+        <v>67960.2746</v>
       </c>
       <c r="U8" t="n">
-        <v>10209.9938</v>
+        <v>15861.0752</v>
       </c>
       <c r="V8" t="n">
-        <v>5988.776</v>
+        <v>9306.689025600001</v>
       </c>
       <c r="W8" t="n">
         <v>1000</v>
@@ -8036,8 +8060,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0;31,6740;41,0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>117500.382</v>
       </c>
@@ -8057,10 +8089,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>69202.5738572</v>
       </c>
       <c r="AS8" t="n">
-        <v>166860.08152</v>
+        <v>236062.6553772</v>
       </c>
     </row>
     <row r="9">
@@ -8259,13 +8291,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>241339.0733516</v>
+        <v>247325.8807274</v>
       </c>
       <c r="U10" t="n">
-        <v>40964.380624</v>
+        <v>43999.29556</v>
       </c>
       <c r="V10" t="n">
-        <v>29805.2383</v>
+        <v>31573.00202299</v>
       </c>
       <c r="W10" t="n">
         <v>2300</v>
@@ -8306,8 +8338,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0;31,3997;41,0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>536316.596425</v>
       </c>
@@ -8327,10 +8367,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>37092.3618413925</v>
       </c>
       <c r="AS10" t="n">
-        <v>707667.4198822</v>
+        <v>744759.7817235925</v>
       </c>
     </row>
     <row r="11">
@@ -8394,13 +8434,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>252115.2208676</v>
+        <v>282050.2577466</v>
       </c>
       <c r="U11" t="n">
-        <v>42797.146864</v>
+        <v>57972.721544</v>
       </c>
       <c r="V11" t="n">
-        <v>29805.2383</v>
+        <v>38646.58075878</v>
       </c>
       <c r="W11" t="n">
         <v>2600</v>
@@ -8441,8 +8481,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0;31,19992;41,0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>536316.596425</v>
       </c>
@@ -8462,10 +8510,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>185484.221308985</v>
       </c>
       <c r="AS11" t="n">
-        <v>731584.6544542001</v>
+        <v>917068.8757631851</v>
       </c>
     </row>
     <row r="12">
@@ -8529,13 +8577,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>262891.3683836</v>
+        <v>292826.4052626</v>
       </c>
       <c r="U12" t="n">
-        <v>44629.913104</v>
+        <v>59805.487784</v>
       </c>
       <c r="V12" t="n">
-        <v>29805.2383</v>
+        <v>38646.58075878</v>
       </c>
       <c r="W12" t="n">
         <v>2900</v>
@@ -8576,8 +8624,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0;31,19992;41,0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>536316.596425</v>
       </c>
@@ -8597,10 +8653,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>185484.221308985</v>
       </c>
       <c r="AS12" t="n">
-        <v>755501.8890261999</v>
+        <v>940986.110335185</v>
       </c>
     </row>
     <row r="13">
@@ -8664,13 +8720,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>273667.5158996</v>
+        <v>332856.10031492</v>
       </c>
       <c r="U13" t="n">
-        <v>46462.679344</v>
+        <v>76469.6577288</v>
       </c>
       <c r="V13" t="n">
-        <v>29805.2383</v>
+        <v>47322.34952478</v>
       </c>
       <c r="W13" t="n">
         <v>3200</v>
@@ -8711,8 +8767,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0;31,38952;41,0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>536316.596425</v>
       </c>
@@ -8732,10 +8796,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>366960.124812925</v>
       </c>
       <c r="AS13" t="n">
-        <v>779419.1235982</v>
+        <v>1146379.248411125</v>
       </c>
     </row>
     <row r="14">
@@ -8799,13 +8863,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>273667.5158996</v>
+        <v>303602.5527786</v>
       </c>
       <c r="U14" t="n">
-        <v>46462.679344</v>
+        <v>61638.25402399999</v>
       </c>
       <c r="V14" t="n">
-        <v>29805.2383</v>
+        <v>38646.58075878</v>
       </c>
       <c r="W14" t="n">
         <v>3200</v>
@@ -8846,8 +8910,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0;31,19992;41,0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>536316.596425</v>
       </c>
@@ -8867,10 +8939,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>185484.221308985</v>
       </c>
       <c r="AS14" t="n">
-        <v>779244.1235982</v>
+        <v>964728.3449071851</v>
       </c>
     </row>
     <row r="15">
@@ -8934,13 +9006,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>413908.108752</v>
+        <v>451445.9097279999</v>
       </c>
       <c r="U15" t="n">
-        <v>69744.1275208</v>
+        <v>88771.83147200001</v>
       </c>
       <c r="V15" t="n">
-        <v>50462.053</v>
+        <v>61624.141096</v>
       </c>
       <c r="W15" t="n">
         <v>3200</v>
@@ -8981,8 +9053,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0;31,26442;41,0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>829424.2360700001</v>
       </c>
@@ -9002,10 +9082,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>233010.96479128</v>
       </c>
       <c r="AS15" t="n">
-        <v>1199253.39339552</v>
+        <v>1432264.3581868</v>
       </c>
     </row>
     <row r="16">
@@ -9069,13 +9149,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>413908.108752</v>
+        <v>457703.043224</v>
       </c>
       <c r="U16" t="n">
-        <v>69744.1275208</v>
+        <v>91943.94879719999</v>
       </c>
       <c r="V16" t="n">
-        <v>50462.053</v>
+        <v>63483.0744369</v>
       </c>
       <c r="W16" t="n">
         <v>3200</v>
@@ -9116,8 +9196,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0;31,30849;41,0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>829424.2360700001</v>
       </c>
@@ -9137,10 +9225,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>271844.574541335</v>
       </c>
       <c r="AS16" t="n">
-        <v>1199428.39339552</v>
+        <v>1471272.967936855</v>
       </c>
     </row>
     <row r="17">
@@ -9204,13 +9292,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1061226.3509308</v>
+        <v>1118915.56668288</v>
       </c>
       <c r="U17" t="n">
-        <v>176031.4157888</v>
+        <v>205267.82239744</v>
       </c>
       <c r="V17" t="n">
-        <v>141859.8</v>
+        <v>159423.238</v>
       </c>
       <c r="W17" t="n">
         <v>3200</v>
@@ -9251,8 +9339,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0;31,46873;41,0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1910569.62932</v>
       </c>
@@ -9272,10 +9368,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>360410.189851696</v>
       </c>
       <c r="AS17" t="n">
-        <v>3106365.96987352</v>
+        <v>3466776.159725216</v>
       </c>
     </row>
     <row r="18">
@@ -9339,13 +9435,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5366354.4963552</v>
+        <v>5517944.913391041</v>
       </c>
       <c r="U18" t="n">
-        <v>896073.2600888</v>
+        <v>972936.43881476</v>
       </c>
       <c r="V18" t="n">
-        <v>721813.2791</v>
+        <v>767287.3632260601</v>
       </c>
       <c r="W18" t="n">
         <v>3200</v>
@@ -9386,8 +9482,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0;31,179581;41,0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11620834.554545</v>
       </c>
@@ -9407,10 +9511,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>943422.333969809</v>
       </c>
       <c r="AS18" t="n">
-        <v>15715915.34579292</v>
+        <v>16659337.67976273</v>
       </c>
     </row>
     <row r="19">
@@ -9474,13 +9578,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8877193.0134016</v>
+        <v>9028783.43043744</v>
       </c>
       <c r="U19" t="n">
-        <v>1480699.6254152</v>
+        <v>1557562.80414116</v>
       </c>
       <c r="V19" t="n">
-        <v>1184861.4612</v>
+        <v>1230335.54532606</v>
       </c>
       <c r="W19" t="n">
         <v>3200</v>
@@ -9521,8 +9625,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0;31,179581;41,0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>18851674.91258</v>
       </c>
@@ -9542,10 +9654,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>943422.3339698091</v>
       </c>
       <c r="AS19" t="n">
-        <v>25925477.83066648</v>
+        <v>26868900.16463629</v>
       </c>
     </row>
     <row r="20">
@@ -9609,13 +9721,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>216202.779075</v>
+        <v>219467.0862575</v>
       </c>
       <c r="U20" t="n">
-        <v>39656.3889256</v>
+        <v>41472.84064888</v>
       </c>
       <c r="V20" t="n">
-        <v>26358.6736</v>
+        <v>27113.73909856</v>
       </c>
       <c r="W20" t="n">
         <v>1000</v>
@@ -9656,8 +9768,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0;31,2592;41,0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>562636.1601400001</v>
       </c>
@@ -9677,10 +9797,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>20139.450689852</v>
       </c>
       <c r="AS20" t="n">
-        <v>646541.7358616401</v>
+        <v>666681.1865514921</v>
       </c>
     </row>
     <row r="21">
@@ -9744,13 +9864,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>284379.0086372</v>
+        <v>288729.97941104</v>
       </c>
       <c r="U21" t="n">
-        <v>50154.2541208</v>
+        <v>52485.01743196</v>
       </c>
       <c r="V21" t="n">
-        <v>34865.087</v>
+        <v>35959.2850091</v>
       </c>
       <c r="W21" t="n">
         <v>1550</v>
@@ -9791,8 +9911,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0;31,3821;41,0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>670040.8661700001</v>
       </c>
@@ -9812,10 +9940,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>26724.876173169</v>
       </c>
       <c r="AS21" t="n">
-        <v>838808.86232072</v>
+        <v>865533.738493889</v>
       </c>
     </row>
     <row r="22">
@@ -9879,13 +10007,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>396641.8824003999</v>
+        <v>404789.52126314</v>
       </c>
       <c r="U22" t="n">
-        <v>67851.0724534</v>
+        <v>72001.17658077</v>
       </c>
       <c r="V22" t="n">
-        <v>49920.33010000001</v>
+        <v>52223.45545133001</v>
       </c>
       <c r="W22" t="n">
         <v>2900</v>
@@ -9926,8 +10054,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0;31,8204;41,0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>853179.315685</v>
       </c>
@@ -9947,10 +10083,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>50026.3281117405</v>
       </c>
       <c r="AS22" t="n">
-        <v>1165140.18040386</v>
+        <v>1215166.508515601</v>
       </c>
     </row>
     <row r="23">
@@ -10014,13 +10150,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>458570.323704</v>
+        <v>469264.3729652</v>
       </c>
       <c r="U23" t="n">
-        <v>80056.8501784</v>
+        <v>85499.68655684</v>
       </c>
       <c r="V23" t="n">
-        <v>56971.0085</v>
+        <v>60072.6368971</v>
       </c>
       <c r="W23" t="n">
         <v>3200</v>
@@ -10061,8 +10197,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,11458;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>932607.7772349999</v>
       </c>
@@ -10082,10 +10226,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>66083.98355576101</v>
       </c>
       <c r="AS23" t="n">
-        <v>1352674.88880996</v>
+        <v>1418758.872365721</v>
       </c>
     </row>
     <row r="24">
@@ -10149,13 +10293,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>531048.00852</v>
+        <v>543926.27174</v>
       </c>
       <c r="U24" t="n">
-        <v>96911.1700656</v>
+        <v>103440.7086104</v>
       </c>
       <c r="V24" t="n">
-        <v>68937.26000000001</v>
+        <v>72756.31335800001</v>
       </c>
       <c r="W24" t="n">
         <v>3200</v>
@@ -10196,8 +10340,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,14183;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1057890.85324</v>
       </c>
@@ -10217,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>79891.63598762</v>
       </c>
       <c r="AS24" t="n">
-        <v>1610953.32697264</v>
+        <v>1690844.96296026</v>
       </c>
     </row>
     <row r="25">
@@ -10284,13 +10436,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>679359.2539904</v>
+        <v>697025.19703808</v>
       </c>
       <c r="U25" t="n">
-        <v>131426.8074456</v>
+        <v>140383.34837812</v>
       </c>
       <c r="V25" t="n">
-        <v>93194.56230000001</v>
+        <v>98603.87962318001</v>
       </c>
       <c r="W25" t="n">
         <v>3200</v>
@@ -10331,8 +10483,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,0;31,20569;41,0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1317880.604865</v>
       </c>
@@ -10352,10 +10512,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>110569.650090353</v>
       </c>
       <c r="AS25" t="n">
-        <v>2138301.95859004</v>
+        <v>2248871.608680393</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/40.xlsx
+++ b/opm_hero_property/heroes/40.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7079,40 +7079,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -7152,7 +7172,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>40</v>
@@ -7179,13 +7199,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5517944.913391041</v>
+        <v>6407478.11044704</v>
       </c>
       <c r="U2" t="n">
-        <v>972936.43881476</v>
+        <v>1123157.31807876</v>
       </c>
       <c r="V2" t="n">
-        <v>767287.3632260601</v>
+        <v>917328.24155406</v>
       </c>
       <c r="W2" t="n">
         <v>3200</v>
@@ -7224,7 +7244,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -7237,28 +7257,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11620834.554545</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1494183.74124792</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2005624.4</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2935225.1643636</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1859191.55</v>
+      </c>
+      <c r="AU2" t="n">
         <v>943422.333969809</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16659337.67976273</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19448129.99412633</v>
       </c>
     </row>
     <row r="3">
@@ -7295,7 +7323,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>40</v>
@@ -7322,13 +7350,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>697025.19703808</v>
+        <v>797201.3895500799</v>
       </c>
       <c r="U3" t="n">
-        <v>140383.34837812</v>
+        <v>157300.52594612</v>
       </c>
       <c r="V3" t="n">
-        <v>98603.87962318001</v>
+        <v>115852.78060718</v>
       </c>
       <c r="W3" t="n">
         <v>3200</v>
@@ -7367,7 +7395,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7380,28 +7408,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1317880.604865</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>169588.35372504</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>467803.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>573168.0483892001</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>210721.45</v>
+      </c>
+      <c r="AU3" t="n">
         <v>110569.650090353</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2248871.608680393</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2564957.507069593</v>
       </c>
     </row>
     <row r="4">
@@ -7438,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>40</v>
@@ -7465,13 +7501,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7428.078799999999</v>
+        <v>7896.078799999999</v>
       </c>
       <c r="U4" t="n">
-        <v>1573.9296</v>
+        <v>1652.9296</v>
       </c>
       <c r="V4" t="n">
-        <v>613.6465000000001</v>
+        <v>692.6465000000001</v>
       </c>
       <c r="W4" t="n">
         <v>562</v>
@@ -7510,25 +7546,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19080.010415</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4549.950000000001</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7536,7 +7568,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23629.960415</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1467.35</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25097.310415</v>
       </c>
     </row>
     <row r="5">
@@ -7573,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>40</v>
@@ -7600,13 +7644,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>19836.878</v>
+        <v>33606.878</v>
       </c>
       <c r="U5" t="n">
-        <v>3928.2372</v>
+        <v>6253.2372</v>
       </c>
       <c r="V5" t="n">
-        <v>1902.827</v>
+        <v>4224.827</v>
       </c>
       <c r="W5" t="n">
         <v>673</v>
@@ -7645,25 +7689,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>48777.06993000001</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11988.35</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7671,7 +7711,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>60765.41993</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>43164</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>103929.41993</v>
       </c>
     </row>
     <row r="6">
@@ -7708,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>40</v>
@@ -7735,13 +7787,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>56592.05</v>
+        <v>115627.05</v>
       </c>
       <c r="U6" t="n">
-        <v>10166.3</v>
+        <v>20135.3</v>
       </c>
       <c r="V6" t="n">
-        <v>5988.776</v>
+        <v>15945.776</v>
       </c>
       <c r="W6" t="n">
         <v>1000</v>
@@ -7780,33 +7832,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>117500.382</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32846</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9640.6</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>166147.482</v>
+      <c r="AT6" t="n">
+        <v>185073.85</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>351221.332</v>
       </c>
     </row>
     <row r="7">
@@ -7843,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>40</v>
@@ -7870,13 +7930,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>62158.10615000001</v>
+        <v>121193.10615</v>
       </c>
       <c r="U7" t="n">
-        <v>12991.8407</v>
+        <v>22960.8407</v>
       </c>
       <c r="V7" t="n">
-        <v>7647.732512799999</v>
+        <v>17604.7325128</v>
       </c>
       <c r="W7" t="n">
         <v>1000</v>
@@ -7915,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7928,28 +7988,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>117500.382</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32846</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9815.6</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>185073.85</v>
+      </c>
+      <c r="AU7" t="n">
         <v>34601.2869286</v>
       </c>
-      <c r="AS7" t="n">
-        <v>200923.7689286</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>385997.6189286</v>
       </c>
     </row>
     <row r="8">
@@ -7986,7 +8054,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>40</v>
@@ -8013,13 +8081,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>67960.2746</v>
+        <v>126995.2746</v>
       </c>
       <c r="U8" t="n">
-        <v>15861.0752</v>
+        <v>25830.0752</v>
       </c>
       <c r="V8" t="n">
-        <v>9306.689025600001</v>
+        <v>19263.6890256</v>
       </c>
       <c r="W8" t="n">
         <v>1000</v>
@@ -8058,7 +8126,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -8071,28 +8139,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>117500.382</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32846</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>537.59952</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9815.6</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>185073.85</v>
+      </c>
+      <c r="AU8" t="n">
         <v>69202.5738572</v>
       </c>
-      <c r="AS8" t="n">
-        <v>236062.6553772</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>421136.5053772</v>
       </c>
     </row>
     <row r="9">
@@ -8129,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>40</v>
@@ -8156,31 +8232,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>240261.4586</v>
+        <v>417176.483186</v>
       </c>
       <c r="U9" t="n">
-        <v>40781.104</v>
+        <v>69390.56504</v>
       </c>
       <c r="V9" t="n">
-        <v>29805.2383</v>
+        <v>57445.622683</v>
       </c>
       <c r="W9" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X9" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA9" t="n">
-        <v>3810</v>
+        <v>3820</v>
       </c>
       <c r="AB9" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -8201,33 +8277,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>536316.596425</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>705325.196425</v>
+        <v>44973.51596425001</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>433670</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1238697.71238925</v>
       </c>
     </row>
     <row r="10">
@@ -8264,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>40</v>
@@ -8291,31 +8375,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>247325.8807274</v>
+        <v>481474.2016090412</v>
       </c>
       <c r="U10" t="n">
-        <v>43999.29556</v>
+        <v>81944.23983759999</v>
       </c>
       <c r="V10" t="n">
-        <v>31573.00202299</v>
+        <v>65776.42736129783</v>
       </c>
       <c r="W10" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X10" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA10" t="n">
-        <v>3810</v>
+        <v>3820</v>
       </c>
       <c r="AB10" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -8336,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8349,28 +8433,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>536316.596425</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2342.2234572</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44973.51596425001</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>433670</v>
+      </c>
+      <c r="AU10" t="n">
         <v>37092.3618413925</v>
       </c>
-      <c r="AS10" t="n">
-        <v>744759.7817235925</v>
+      <c r="AV10" t="n">
+        <v>253733.2161281012</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1437517.913815944</v>
       </c>
     </row>
     <row r="11">
@@ -8407,7 +8503,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>40</v>
@@ -8434,31 +8530,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>282050.2577466</v>
+        <v>580998.3374145869</v>
       </c>
       <c r="U11" t="n">
-        <v>57972.721544</v>
+        <v>105131.397157024</v>
       </c>
       <c r="V11" t="n">
-        <v>38646.58075878</v>
+        <v>80103.33051433205</v>
       </c>
       <c r="W11" t="n">
-        <v>2600</v>
+        <v>2610</v>
       </c>
       <c r="X11" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA11" t="n">
-        <v>3810</v>
+        <v>3820</v>
       </c>
       <c r="AB11" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8479,7 +8575,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8492,28 +8588,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>536316.596425</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>26259.4580292</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44973.51596425001</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>433670</v>
+      </c>
+      <c r="AU11" t="n">
         <v>185484.221308985</v>
       </c>
-      <c r="AS11" t="n">
-        <v>917068.8757631851</v>
+      <c r="AV11" t="n">
+        <v>423814.3365280267</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1779908.128255462</v>
       </c>
     </row>
     <row r="12">
@@ -8550,7 +8658,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>40</v>
@@ -8577,31 +8685,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>292826.4052626</v>
+        <v>674347.4558754206</v>
       </c>
       <c r="U12" t="n">
-        <v>59805.487784</v>
+        <v>116262.238749304</v>
       </c>
       <c r="V12" t="n">
-        <v>38646.58075878</v>
+        <v>91111.40167773477</v>
       </c>
       <c r="W12" t="n">
-        <v>2900</v>
+        <v>2920</v>
       </c>
       <c r="X12" t="n">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2160</v>
+        <v>2180</v>
       </c>
       <c r="AA12" t="n">
-        <v>3810</v>
+        <v>3830</v>
       </c>
       <c r="AB12" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8622,7 +8730,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8635,28 +8743,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>536316.596425</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>50176.6926012</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44973.51596425001</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>433670</v>
+      </c>
+      <c r="AU12" t="n">
         <v>185484.221308985</v>
       </c>
-      <c r="AS12" t="n">
-        <v>940986.110335185</v>
+      <c r="AV12" t="n">
+        <v>633960.4365931579</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>2013971.462892593</v>
       </c>
     </row>
     <row r="13">
@@ -8693,7 +8813,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>40</v>
@@ -8720,31 +8840,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>332856.10031492</v>
+        <v>811289.7905238393</v>
       </c>
       <c r="U13" t="n">
-        <v>76469.6577288</v>
+        <v>146124.6202629448</v>
       </c>
       <c r="V13" t="n">
-        <v>47322.34952478</v>
+        <v>111005.0247319068</v>
       </c>
       <c r="W13" t="n">
-        <v>3200</v>
+        <v>3250</v>
       </c>
       <c r="X13" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA13" t="n">
-        <v>3810</v>
+        <v>3860</v>
       </c>
       <c r="AB13" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8765,7 +8885,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8778,28 +8898,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>536316.596425</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>74093.92717320001</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44973.51596425001</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>433670</v>
+      </c>
+      <c r="AU13" t="n">
         <v>366960.124812925</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1146379.248411125</v>
+      <c r="AV13" t="n">
+        <v>886803.3981712471</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2472207.562546622</v>
       </c>
     </row>
     <row r="14">
@@ -8836,7 +8968,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>40</v>
@@ -8863,31 +8995,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>303602.5527786</v>
+        <v>913199.5090781009</v>
       </c>
       <c r="U14" t="n">
-        <v>61638.25402399999</v>
+        <v>145850.076225536</v>
       </c>
       <c r="V14" t="n">
-        <v>38646.58075878</v>
+        <v>112262.1083051827</v>
       </c>
       <c r="W14" t="n">
-        <v>3200</v>
+        <v>3250</v>
       </c>
       <c r="X14" t="n">
-        <v>860</v>
+        <v>910</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA14" t="n">
-        <v>3740</v>
+        <v>3790</v>
       </c>
       <c r="AB14" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8908,7 +9040,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8921,28 +9053,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>536316.596425</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>74093.92717320001</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>39443.60000000001</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44798.51596425001</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>433670</v>
+      </c>
+      <c r="AU14" t="n">
         <v>185484.221308985</v>
       </c>
-      <c r="AS14" t="n">
-        <v>964728.3449071851</v>
+      <c r="AV14" t="n">
+        <v>1175522.896917665</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2579276.1577891</v>
       </c>
     </row>
     <row r="15">
@@ -8979,7 +9123,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>40</v>
@@ -9006,31 +9150,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>451445.9097279999</v>
+        <v>1455833.445421824</v>
       </c>
       <c r="U15" t="n">
-        <v>88771.83147200001</v>
+        <v>239725.39531496</v>
       </c>
       <c r="V15" t="n">
-        <v>61624.141096</v>
+        <v>188986.328840708</v>
       </c>
       <c r="W15" t="n">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2160</v>
+        <v>2260</v>
       </c>
       <c r="AA15" t="n">
-        <v>3880</v>
+        <v>3980</v>
       </c>
       <c r="AB15" t="n">
-        <v>1080</v>
+        <v>1480</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -9051,7 +9195,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -9064,28 +9208,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>829424.2360700001</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>110214.60732552</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>112125.4</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>128697.3847214</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>793472.4</v>
+      </c>
+      <c r="AU15" t="n">
         <v>233010.96479128</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1432264.3581868</v>
+      <c r="AV15" t="n">
+        <v>1969455.321020919</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4211764.063929119</v>
       </c>
     </row>
     <row r="16">
@@ -9122,7 +9278,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>40</v>
@@ -9149,31 +9305,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>457703.043224</v>
+        <v>1489875.965255976</v>
       </c>
       <c r="U16" t="n">
-        <v>91943.94879719999</v>
+        <v>247536.9135385752</v>
       </c>
       <c r="V16" t="n">
-        <v>63483.0744369</v>
+        <v>194362.3783872171</v>
       </c>
       <c r="W16" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="X16" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA16" t="n">
-        <v>3950</v>
+        <v>4150</v>
       </c>
       <c r="AB16" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -9194,7 +9350,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -9207,28 +9363,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>829424.2360700001</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>110214.60732552</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>112300.4</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128872.3847214</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>793472.4</v>
+      </c>
+      <c r="AU16" t="n">
         <v>271844.574541335</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1471272.967936855</v>
+      <c r="AV16" t="n">
+        <v>2050675.991740389</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4331993.344398644</v>
       </c>
     </row>
     <row r="17">
@@ -9265,7 +9433,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>40</v>
@@ -9292,31 +9460,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1118915.56668288</v>
+        <v>2733873.705392912</v>
       </c>
       <c r="U17" t="n">
-        <v>205267.82239744</v>
+        <v>441209.3219515597</v>
       </c>
       <c r="V17" t="n">
-        <v>159423.238</v>
+        <v>367786.903456</v>
       </c>
       <c r="W17" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="X17" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA17" t="n">
-        <v>4230</v>
+        <v>4430</v>
       </c>
       <c r="AB17" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -9337,7 +9505,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9350,28 +9518,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1910569.62932</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>242326.24055352</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>683503.6000000001</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>759893.3851727999</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1267777</v>
+      </c>
+      <c r="AU17" t="n">
         <v>360410.189851696</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3466776.159725216</v>
+      <c r="AV17" t="n">
+        <v>3099278.776832658</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7910221.721730674</v>
       </c>
     </row>
     <row r="18">
@@ -9408,7 +9588,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>40</v>
@@ -9435,31 +9615,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5517944.913391041</v>
+        <v>9618836.18544393</v>
       </c>
       <c r="U18" t="n">
-        <v>972936.43881476</v>
+        <v>1524233.481612054</v>
       </c>
       <c r="V18" t="n">
-        <v>767287.3632260601</v>
+        <v>1248734.718057439</v>
       </c>
       <c r="W18" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="X18" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA18" t="n">
-        <v>4790</v>
+        <v>4990</v>
       </c>
       <c r="AB18" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9480,7 +9660,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9493,28 +9673,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11620834.554545</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1494183.74124792</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2005624.4</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2935225.1643636</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1859191.55</v>
+      </c>
+      <c r="AU18" t="n">
         <v>943422.333969809</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16659337.67976273</v>
+      <c r="AV18" t="n">
+        <v>7886770.843271046</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27334900.83739737</v>
       </c>
     </row>
     <row r="19">
@@ -9551,7 +9743,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>40</v>
@@ -9578,31 +9770,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9028783.43043744</v>
+        <v>16517759.19424849</v>
       </c>
       <c r="U19" t="n">
-        <v>1557562.80414116</v>
+        <v>2684329.670863453</v>
       </c>
       <c r="V19" t="n">
-        <v>1230335.54532606</v>
+        <v>2204185.423895175</v>
       </c>
       <c r="W19" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="X19" t="n">
-        <v>2820</v>
+        <v>3020</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA19" t="n">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="AB19" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9623,7 +9815,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9636,28 +9828,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18851674.91258</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2428827.56808648</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3469133.2</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6296760.686887</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1859191.55</v>
+      </c>
+      <c r="AU19" t="n">
         <v>943422.3339698091</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26868900.16463629</v>
+      <c r="AV19" t="n">
+        <v>16178884.90908028</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47734604.11060357</v>
       </c>
     </row>
     <row r="20">
@@ -9694,7 +9898,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>40</v>
@@ -9721,13 +9925,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>219467.0862575</v>
+        <v>226115.0862575</v>
       </c>
       <c r="U20" t="n">
-        <v>41472.84064888</v>
+        <v>42594.84064888</v>
       </c>
       <c r="V20" t="n">
-        <v>27113.73909856</v>
+        <v>28257.73909856</v>
       </c>
       <c r="W20" t="n">
         <v>1000</v>
@@ -9766,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9779,28 +9983,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>562636.1601400001</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32846</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2537.87572164</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>33824.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>20967.8</v>
+      </c>
+      <c r="AU20" t="n">
         <v>20139.450689852</v>
       </c>
-      <c r="AS20" t="n">
-        <v>666681.1865514921</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>687648.986551492</v>
       </c>
     </row>
     <row r="21">
@@ -9837,7 +10049,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>40</v>
@@ -9864,13 +10076,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>288729.97941104</v>
+        <v>302460.07705304</v>
       </c>
       <c r="U21" t="n">
-        <v>52485.01743196</v>
+        <v>54823.58641996</v>
       </c>
       <c r="V21" t="n">
-        <v>35959.2850091</v>
+        <v>38257.3258791</v>
       </c>
       <c r="W21" t="n">
         <v>1550</v>
@@ -9909,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9922,28 +10134,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>670040.8661700001</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49269</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>32821.29615072</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>67649.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>74341.75866170001</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>36387.8</v>
+      </c>
+      <c r="AU21" t="n">
         <v>26724.876173169</v>
       </c>
-      <c r="AS21" t="n">
-        <v>865533.738493889</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>908613.697155589</v>
       </c>
     </row>
     <row r="22">
@@ -9980,7 +10200,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>40</v>
@@ -10007,31 +10227,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>404789.52126314</v>
+        <v>532620.4175701311</v>
       </c>
       <c r="U22" t="n">
-        <v>72001.17658077</v>
+        <v>90836.36620994136</v>
       </c>
       <c r="V22" t="n">
-        <v>52223.45545133001</v>
+        <v>68037.86785552574</v>
       </c>
       <c r="W22" t="n">
-        <v>2900</v>
+        <v>2950</v>
       </c>
       <c r="X22" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA22" t="n">
-        <v>3810</v>
+        <v>3860</v>
       </c>
       <c r="AB22" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -10052,7 +10272,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -10065,28 +10285,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>853179.315685</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>76790.81471886</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>97518.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>106041.94315685</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>49146.5</v>
+      </c>
+      <c r="AU22" t="n">
         <v>50026.3281117405</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1215166.508515601</v>
+      <c r="AV22" t="n">
+        <v>291656.532915549</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1564493.084588</v>
       </c>
     </row>
     <row r="23">
@@ -10123,7 +10355,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>40</v>
@@ -10150,31 +10382,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>469264.3729652</v>
+        <v>688047.8800009992</v>
       </c>
       <c r="U23" t="n">
-        <v>85499.68655684</v>
+        <v>121644.5251369283</v>
       </c>
       <c r="V23" t="n">
-        <v>60072.6368971</v>
+        <v>87615.47749969529</v>
       </c>
       <c r="W23" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="X23" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA23" t="n">
-        <v>3950</v>
+        <v>4150</v>
       </c>
       <c r="AB23" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -10195,7 +10427,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -10208,28 +10440,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>932607.7772349999</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>122908.51157496</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>152526</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>171161.6555447</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>89926.95000000001</v>
+      </c>
+      <c r="AU23" t="n">
         <v>66083.98355576101</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1418758.872365721</v>
+      <c r="AV23" t="n">
+        <v>520391.6211586313</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2047713.099069052</v>
       </c>
     </row>
     <row r="24">
@@ -10266,7 +10510,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>40</v>
@@ -10293,31 +10537,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>543926.27174</v>
+        <v>868141.73462444</v>
       </c>
       <c r="U24" t="n">
-        <v>103440.7086104</v>
+        <v>157679.8779426408</v>
       </c>
       <c r="V24" t="n">
-        <v>72756.31335800001</v>
+        <v>114927.375549714</v>
       </c>
       <c r="W24" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="X24" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA24" t="n">
-        <v>4230</v>
+        <v>4430</v>
       </c>
       <c r="AB24" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -10338,7 +10582,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10351,28 +10595,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1057890.85324</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>137999.27373264</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>257621.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>299903.8341296</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>143686.75</v>
+      </c>
+      <c r="AU24" t="n">
         <v>79891.63598762</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1690844.96296026</v>
+      <c r="AV24" t="n">
+        <v>757379.9547496573</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2634194.301839517</v>
       </c>
     </row>
     <row r="25">
@@ -10409,7 +10665,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>40</v>
@@ -10436,31 +10692,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>697025.19703808</v>
+        <v>1489882.899650519</v>
       </c>
       <c r="U25" t="n">
-        <v>140383.34837812</v>
+        <v>269590.3324072813</v>
       </c>
       <c r="V25" t="n">
-        <v>98603.87962318001</v>
+        <v>199833.5384161607</v>
       </c>
       <c r="W25" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="X25" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA25" t="n">
-        <v>4790</v>
+        <v>4990</v>
       </c>
       <c r="AB25" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10481,7 +10737,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10494,28 +10750,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1317880.604865</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>169588.35372504</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>467803.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>573168.0483892001</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>210721.45</v>
+      </c>
+      <c r="AU25" t="n">
         <v>110569.650090353</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2248871.608680393</v>
+      <c r="AV25" t="n">
+        <v>1952770.532084091</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4517728.039153684</v>
       </c>
     </row>
   </sheetData>
